--- a/data/trans_orig/P14B22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BEFCFE-1E32-4088-B50E-B1D63E2D3E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9E7B30-7E4A-4890-BA7E-9C2D8B9BC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E448AA1E-4F60-436D-8B2E-D742F6E09AEA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0151776-F7A4-48CF-B1B8-A131E5FFEA59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="201">
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2012 (Tasa respuesta: 0,78%)</t>
   </si>
@@ -106,19 +106,19 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -163,7 +163,7 @@
     <t>75,64%</t>
   </si>
   <si>
-    <t>50,2%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>94,05%</t>
@@ -181,7 +181,7 @@
     <t>78,37%</t>
   </si>
   <si>
-    <t>60,36%</t>
+    <t>60,74%</t>
   </si>
   <si>
     <t>91,0%</t>
@@ -193,7 +193,7 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>49,8%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>18,99%</t>
@@ -211,430 +211,436 @@
     <t>9,0%</t>
   </si>
   <si>
-    <t>39,64%</t>
+    <t>39,26%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo accidente cerebrovascular le limita en 2015 (Tasa respuesta: 0,59%)</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2015 (Tasa respuesta: 0,59%)</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>75,95%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>45,7%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>54,3%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>50,83%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>49,17%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFFFCD5-327C-4D49-AD32-EAC10C537B4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADDB67-90CA-48EB-88D7-B5F80D876929}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2235,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A611C-25F7-447F-A78E-52ED8AC816D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D18F64D-4079-40F8-881C-D9C213B7C04E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3424,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B2AE19-59E2-4C75-8341-1ECBBF6C67DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8556382-D5F9-42E5-B441-CD79C984D31A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,7 +3888,7 @@
         <v>1405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
@@ -3918,7 +3924,7 @@
         <v>1040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
@@ -3933,7 +3939,7 @@
         <v>1040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
@@ -4013,7 +4019,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4022,13 +4028,13 @@
         <v>2316</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4037,13 +4043,13 @@
         <v>4662</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4067,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>14</v>
@@ -4073,13 +4079,13 @@
         <v>1503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4088,13 +4094,13 @@
         <v>5539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4168,13 @@
         <v>10311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4177,13 +4183,13 @@
         <v>4793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4192,13 +4198,13 @@
         <v>15104</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4219,13 @@
         <v>4478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4228,13 +4234,13 @@
         <v>4635</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4243,13 +4249,13 @@
         <v>9114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4323,13 @@
         <v>15399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4332,13 +4338,13 @@
         <v>12181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4347,13 +4353,13 @@
         <v>27580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4374,13 @@
         <v>6404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4383,13 +4389,13 @@
         <v>9057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4398,13 +4404,13 @@
         <v>15461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4478,13 @@
         <v>30301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -4487,13 +4493,13 @@
         <v>20798</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -4502,13 +4508,13 @@
         <v>51100</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4529,13 @@
         <v>14918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -4538,13 +4544,13 @@
         <v>17692</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -4553,13 +4559,13 @@
         <v>32609</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9E7B30-7E4A-4890-BA7E-9C2D8B9BC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C987F83-FB71-4AB8-A2E0-EAFE08F0D975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0151776-F7A4-48CF-B1B8-A131E5FFEA59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA86F052-CB5A-48F1-B028-24429AC643D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -106,19 +106,19 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -163,115 +163,115 @@
     <t>75,64%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>78,37%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población cuyo accidente cerebrovascular le limita en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>51,35%</t>
@@ -289,7 +289,7 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>42,28%</t>
+    <t>54,86%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -301,7 +301,7 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>57,72%</t>
+    <t>45,14%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -319,109 +319,109 @@
     <t>45,91%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>59,99%</t>
   </si>
   <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>54,23%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>54,09%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>40,01%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
   </si>
   <si>
     <t>45,77%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>56,35%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
   </si>
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADDB67-90CA-48EB-88D7-B5F80D876929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B3E800-AC06-4F11-8E36-F97B6AADF017}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2241,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D18F64D-4079-40F8-881C-D9C213B7C04E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC93F6-CACB-48CA-A5C5-3D34DDCEC6E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8556382-D5F9-42E5-B441-CD79C984D31A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E2FFEA-ADE8-47E1-9C60-DF3D2CDEDF2E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
